--- a/results/real_data_freelancer_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_08/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/real_data_freelancer_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_08/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_freelancer_0.1_opt_constrained\k=0.1\ROI_greedy\dataset_08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113B145-A3A1-4771-997E-DDAF69B3CB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_08_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +229,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +382,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +702,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.9189686924493554</v>
+        <v>0.91896869244935542</v>
       </c>
       <c r="O2">
         <v>607</v>
@@ -615,19 +714,19 @@
         <v>2.249645707699826</v>
       </c>
       <c r="R2">
-        <v>399.0226747072111</v>
+        <v>399.02267470721108</v>
       </c>
       <c r="S2">
         <v>9.484375</v>
       </c>
       <c r="T2">
-        <v>11.61702127659574</v>
+        <v>11.617021276595739</v>
       </c>
       <c r="U2">
-        <v>2.452471374034846</v>
+        <v>2.4524713740348458</v>
       </c>
       <c r="V2">
-        <v>383.7338454203622</v>
+        <v>383.73384542036217</v>
       </c>
       <c r="W2">
         <v>984</v>
@@ -639,10 +738,10 @@
         <v>940</v>
       </c>
       <c r="Z2">
-        <v>1.046808510638298</v>
+        <v>1.0468085106382981</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +782,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.8113590263691683</v>
+        <v>0.81135902636916835</v>
       </c>
       <c r="O3">
         <v>555</v>
@@ -692,22 +791,22 @@
         <v>62</v>
       </c>
       <c r="Q3">
-        <v>2.191833728701343</v>
+        <v>2.1918337287013432</v>
       </c>
       <c r="R3">
-        <v>357.1063088205167</v>
+        <v>357.10630882051669</v>
       </c>
       <c r="S3">
-        <v>8.951612903225806</v>
+        <v>8.9516129032258061</v>
       </c>
       <c r="T3">
         <v>15.81481481481481</v>
       </c>
       <c r="U3">
-        <v>2.760947147224296</v>
+        <v>2.7609471472242961</v>
       </c>
       <c r="V3">
-        <v>325.454427024944</v>
+        <v>325.45442702494398</v>
       </c>
       <c r="W3">
         <v>723</v>
@@ -722,7 +821,7 @@
         <v>1.147619047619048</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +942,7 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.8481012658227848</v>
+        <v>0.84810126582278478</v>
       </c>
       <c r="O5">
         <v>222</v>
@@ -855,19 +954,19 @@
         <v>1.243794298512608</v>
       </c>
       <c r="R5">
-        <v>78.39716489519311</v>
+        <v>78.397164895193114</v>
       </c>
       <c r="S5">
         <v>3.46875</v>
       </c>
       <c r="T5">
-        <v>4.190476190476191</v>
+        <v>4.1904761904761907</v>
       </c>
       <c r="U5">
-        <v>1.432814376754784</v>
+        <v>1.4328143767547841</v>
       </c>
       <c r="V5">
-        <v>73.82179617629909</v>
+        <v>73.821796176299088</v>
       </c>
       <c r="W5">
         <v>442</v>
@@ -882,7 +981,7 @@
         <v>1.057416267942584</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -935,7 +1034,7 @@
         <v>2.639057329615258</v>
       </c>
       <c r="R6">
-        <v>341.9111081226965</v>
+        <v>341.91110812269648</v>
       </c>
       <c r="S6">
         <v>14</v>
@@ -947,7 +1046,7 @@
         <v>2.639057329615258</v>
       </c>
       <c r="V6">
-        <v>341.9111081226965</v>
+        <v>341.91110812269648</v>
       </c>
       <c r="W6">
         <v>721</v>
@@ -962,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1102,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.8567567567567568</v>
+        <v>0.85675675675675678</v>
       </c>
       <c r="O7">
         <v>423</v>
@@ -1015,19 +1114,19 @@
         <v>2.077080265494156</v>
       </c>
       <c r="R7">
-        <v>259.9147459288097</v>
+        <v>259.91474592880968</v>
       </c>
       <c r="S7">
-        <v>7.981132075471698</v>
+        <v>7.9811320754716979</v>
       </c>
       <c r="T7">
-        <v>9.342105263157896</v>
+        <v>9.3421052631578956</v>
       </c>
       <c r="U7">
-        <v>2.23453162974903</v>
+        <v>2.2345316297490299</v>
       </c>
       <c r="V7">
-        <v>232.0877980695369</v>
+        <v>232.08779806953689</v>
       </c>
       <c r="W7">
         <v>646</v>
@@ -1042,7 +1141,7 @@
         <v>1.0893760539629</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1182,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.8728606356968215</v>
+        <v>0.87286063569682149</v>
       </c>
       <c r="O8">
         <v>485</v>
@@ -1095,19 +1194,19 @@
         <v>1.853415550651152</v>
       </c>
       <c r="R8">
-        <v>268.1404181505125</v>
+        <v>268.14041815051252</v>
       </c>
       <c r="S8">
-        <v>6.381578947368421</v>
+        <v>6.3815789473684212</v>
       </c>
       <c r="T8">
         <v>11.5</v>
       </c>
       <c r="U8">
-        <v>2.442347035369204</v>
+        <v>2.4423470353692038</v>
       </c>
       <c r="V8">
-        <v>273.960200797447</v>
+        <v>273.96020079744699</v>
       </c>
       <c r="W8">
         <v>1030</v>
@@ -1119,10 +1218,10 @@
         <v>978</v>
       </c>
       <c r="Z8">
-        <v>1.053169734151329</v>
+        <v>1.0531697341513291</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1262,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.6924731182795699</v>
+        <v>0.69247311827956992</v>
       </c>
       <c r="O9">
         <v>562</v>
@@ -1175,19 +1274,19 @@
         <v>1.756790871390308</v>
       </c>
       <c r="R9">
-        <v>294.5912854751401</v>
+        <v>294.59128547514013</v>
       </c>
       <c r="S9">
-        <v>5.793814432989691</v>
+        <v>5.7938144329896906</v>
       </c>
       <c r="T9">
-        <v>9.050000000000001</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="U9">
-        <v>2.202764757711835</v>
+        <v>2.2027647577118352</v>
       </c>
       <c r="V9">
-        <v>233.8894096915266</v>
+        <v>233.88940969152659</v>
       </c>
       <c r="W9">
         <v>1095</v>
@@ -1199,10 +1298,10 @@
         <v>952</v>
       </c>
       <c r="Z9">
-        <v>1.150210084033613</v>
+        <v>1.1502100840336129</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1342,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.9379562043795621</v>
+        <v>0.93795620437956206</v>
       </c>
       <c r="O10">
         <v>324</v>
@@ -1252,22 +1351,22 @@
         <v>50</v>
       </c>
       <c r="Q10">
-        <v>1.868720510364183</v>
+        <v>1.8687205103641831</v>
       </c>
       <c r="R10">
-        <v>180.5639744817908</v>
+        <v>180.56397448179081</v>
       </c>
       <c r="S10">
         <v>6.48</v>
       </c>
       <c r="T10">
-        <v>8.558823529411764</v>
+        <v>8.5588235294117645</v>
       </c>
       <c r="U10">
-        <v>2.146962742555331</v>
+        <v>2.1469627425553308</v>
       </c>
       <c r="V10">
-        <v>184.0032667531187</v>
+        <v>184.00326675311871</v>
       </c>
       <c r="W10">
         <v>676</v>
@@ -1279,10 +1378,10 @@
         <v>659</v>
       </c>
       <c r="Z10">
-        <v>1.025796661608498</v>
+        <v>1.0257966616084979</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1335,19 +1434,19 @@
         <v>1.694065498068454</v>
       </c>
       <c r="R11">
-        <v>211.5569566487291</v>
+        <v>211.55695664872911</v>
       </c>
       <c r="S11">
-        <v>5.441558441558442</v>
+        <v>5.4415584415584419</v>
       </c>
       <c r="T11">
         <v>8.5</v>
       </c>
       <c r="U11">
-        <v>2.140066163496271</v>
+        <v>2.1400661634962712</v>
       </c>
       <c r="V11">
-        <v>214.3973534601492</v>
+        <v>214.39735346014919</v>
       </c>
       <c r="W11">
         <v>780</v>
@@ -1360,9 +1459,52 @@
       </c>
       <c r="Z11">
         <v>1.056910569105691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12" s="3">
+        <f>AVERAGE(J2:J11)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.88156686822101593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0627306929061962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.69247311827956992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.1502100840336129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>